--- a/Mappings/SNAQScore - STU3.xlsx
+++ b/Mappings/SNAQScore - STU3.xlsx
@@ -4,24 +4,25 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="615" windowWidth="27495" windowHeight="11955" activeTab="3"/>
+    <workbookView xWindow="630" yWindow="615" windowWidth="27495" windowHeight="11955" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Metadata" sheetId="2" r:id="rId2"/>
     <sheet name="Information Model" sheetId="3" r:id="rId3"/>
-    <sheet name="Data" sheetId="4" r:id="rId4"/>
-    <sheet name="AppetiteScoreCodelist" sheetId="5" r:id="rId5"/>
-    <sheet name="NutritionScoreCodelist" sheetId="6" r:id="rId6"/>
-    <sheet name="SNAQWeightLossScoreCodelist" sheetId="7" r:id="rId7"/>
-    <sheet name="Terms of Use" sheetId="8" r:id="rId8"/>
+    <sheet name="Research" sheetId="9" r:id="rId4"/>
+    <sheet name="Data" sheetId="4" r:id="rId5"/>
+    <sheet name="AppetiteScoreCodelist" sheetId="5" r:id="rId6"/>
+    <sheet name="NutritionScoreCodelist" sheetId="6" r:id="rId7"/>
+    <sheet name="SNAQWeightLossScoreCodelist" sheetId="7" r:id="rId8"/>
+    <sheet name="Terms of Use" sheetId="8" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="0" iterate="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="186">
   <si>
     <t>Subject</t>
   </si>
@@ -497,23 +498,10 @@
     <t>Maps to</t>
   </si>
   <si>
-    <t>Observation</t>
-  </si>
-  <si>
-    <t>Observation.valueQuantity</t>
-  </si>
-  <si>
     <t>Observation.effectiveDateTime</t>
   </si>
   <si>
     <t>Observation.comment</t>
-  </si>
-  <si>
-    <t>Als een van de components niet is ingevuld dan is de cardinaliteit 1.</t>
-  </si>
-  <si>
-    <t>Waardebereik: 0-5
-If  component scores are not present, then Total score is Required.</t>
   </si>
   <si>
     <t>If one of the component Scores is present, other scores (other than TotalScore) are required)</t>
@@ -531,12 +519,82 @@
   <si>
     <t>Notes</t>
   </si>
+  <si>
+    <t>Equivalence</t>
+  </si>
+  <si>
+    <t>nl-core-observation</t>
+  </si>
+  <si>
+    <t>Valueset Mapping</t>
+  </si>
+  <si>
+    <t>.valueQuantity</t>
+  </si>
+  <si>
+    <t>equal</t>
+  </si>
+  <si>
+    <t>hcim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google </t>
+  </si>
+  <si>
+    <t>Checkbox searched for existing profiles / implementation on:</t>
+  </si>
+  <si>
+    <t>Checkbox!</t>
+  </si>
+  <si>
+    <t>Searchwords</t>
+  </si>
+  <si>
+    <t>Found results:</t>
+  </si>
+  <si>
+    <t>HL7 FHIR Specification</t>
+  </si>
+  <si>
+    <t>HL7 FHIR profiles</t>
+  </si>
+  <si>
+    <t>HL7 FHIR profiles - latest version latest version (build)</t>
+  </si>
+  <si>
+    <t>HL7 FHIR extension registry</t>
+  </si>
+  <si>
+    <t>HL7 FHIR extension registry - latest version (build)</t>
+  </si>
+  <si>
+    <t>HL7 FHIR implementation guides (e.g. Argonaut)</t>
+  </si>
+  <si>
+    <t>Simplifier.net</t>
+  </si>
+  <si>
+    <t>Zulip (chat.fhir.org)</t>
+  </si>
+  <si>
+    <t>SNAQ, SNAQScore, malnutrition</t>
+  </si>
+  <si>
+    <t>no relevant</t>
+  </si>
+  <si>
+    <t>Valuerange: 0-5
+If  component scores are not present, then Total score is Required.</t>
+  </si>
+  <si>
+    <t>Asked terminologyteam for a preliminary SNOMED code: 8881000146104, this code is not yet published in the HCIM's. Check bits issue ZIB-287 for progress</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
@@ -569,6 +627,12 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -661,7 +725,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -721,6 +785,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -733,6 +806,166 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp28.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp29.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp30.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp31.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp32.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp33.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp35.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp36.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp37.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp38.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp39.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp40.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -842,6 +1075,1571 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4097" name="Check Box 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4097"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4098" name="Check Box 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4098"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4099" name="Check Box 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4099"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4100" name="Check Box 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4100"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4101" name="Check Box 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4101"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4102" name="Check Box 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4102"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4103" name="Check Box 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4103"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4104" name="Check Box 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4104"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4105" name="Check Box 9" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4105"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4106" name="Check Box 10" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4106"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4107" name="Check Box 11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4107"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4108" name="Check Box 12" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4108"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4109" name="Check Box 13" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4109"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4110" name="Check Box 14" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4110"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4111" name="Check Box 15" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4111"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4112" name="Check Box 16" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4112"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4113" name="Check Box 17" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4113"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4114" name="Check Box 18" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4114"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4115" name="Check Box 19" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4115"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4116" name="Check Box 20" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4116"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4117" name="Check Box 21" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4117"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4118" name="Check Box 22" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4118"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4119" name="Check Box 23" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4119"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4120" name="Check Box 24" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4120"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="704850" cy="209550"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4121" name="Check Box 25" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4121"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="704850" cy="209550"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4122" name="Check Box 26" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4122"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="704850" cy="209550"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4123" name="Check Box 27" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4123"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="704850" cy="209550"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4124" name="Check Box 28" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4124"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="704850" cy="209550"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4125" name="Check Box 29" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4125"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="704850" cy="209550"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4126" name="Check Box 30" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4126"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="704850" cy="209550"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4127" name="Check Box 31" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4127"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="704850" cy="209550"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4128" name="Check Box 32" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4128"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="704850" cy="209550"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4129" name="Check Box 33" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4129"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="704850" cy="209550"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4130" name="Check Box 34" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4130"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="704850" cy="209550"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4131" name="Check Box 35" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4131"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="704850" cy="209550"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4132" name="Check Box 36" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4132"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="704850" cy="209550"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4133" name="Check Box 37" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4133"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="704850" cy="209550"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4134" name="Check Box 38" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4134"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="704850" cy="209550"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4135" name="Check Box 39" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4135"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="704850" cy="209550"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4136" name="Check Box 40" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4136"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -1281,10 +3079,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="20"/>
+      <c r="C2" s="21"/>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="2" t="s">
@@ -1495,11 +3293,1002 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="50" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="22" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="22" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="22" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="C8" t="s">
+        <v>182</v>
+      </c>
+      <c r="F8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C9" t="s">
+        <v>182</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4097" r:id="rId3" name="Check Box 1">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4098" r:id="rId4" name="Check Box 2">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4099" r:id="rId5" name="Check Box 3">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4100" r:id="rId6" name="Check Box 4">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4101" r:id="rId7" name="Check Box 5">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4102" r:id="rId8" name="Check Box 6">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4103" r:id="rId9" name="Check Box 7">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4104" r:id="rId10" name="Check Box 8">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4105" r:id="rId11" name="Check Box 9">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4106" r:id="rId12" name="Check Box 10">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4107" r:id="rId13" name="Check Box 11">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4108" r:id="rId14" name="Check Box 12">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4109" r:id="rId15" name="Check Box 13">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4110" r:id="rId16" name="Check Box 14">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4111" r:id="rId17" name="Check Box 15">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4112" r:id="rId18" name="Check Box 16">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4113" r:id="rId19" name="Check Box 17">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4114" r:id="rId20" name="Check Box 18">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4115" r:id="rId21" name="Check Box 19">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4116" r:id="rId22" name="Check Box 20">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4117" r:id="rId23" name="Check Box 21">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4118" r:id="rId24" name="Check Box 22">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4119" r:id="rId25" name="Check Box 23">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4120" r:id="rId26" name="Check Box 24">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4121" r:id="rId27" name="Check Box 25">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4122" r:id="rId28" name="Check Box 26">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4123" r:id="rId29" name="Check Box 27">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4124" r:id="rId30" name="Check Box 28">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4125" r:id="rId31" name="Check Box 29">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4126" r:id="rId32" name="Check Box 30">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4127" r:id="rId33" name="Check Box 31">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4128" r:id="rId34" name="Check Box 32">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4129" r:id="rId35" name="Check Box 33">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4130" r:id="rId36" name="Check Box 34">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4131" r:id="rId37" name="Check Box 35">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4132" r:id="rId38" name="Check Box 36">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4133" r:id="rId39" name="Check Box 37">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4134" r:id="rId40" name="Check Box 38">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4135" r:id="rId41" name="Check Box 39">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4136" r:id="rId42" name="Check Box 40">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:R9"/>
+  <dimension ref="B2:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1512,11 +4301,14 @@
     <col min="12" max="12" width="15" customWidth="1"/>
     <col min="13" max="13" width="75" customWidth="1"/>
     <col min="14" max="14" width="20" customWidth="1"/>
-    <col min="15" max="17" width="30" customWidth="1"/>
-    <col min="18" max="18" width="20" customWidth="1"/>
+    <col min="15" max="16" width="30" customWidth="1"/>
+    <col min="17" max="17" width="19.28515625" customWidth="1"/>
+    <col min="18" max="18" width="18.140625" customWidth="1"/>
+    <col min="19" max="19" width="30" style="25" customWidth="1"/>
+    <col min="20" max="20" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18">
+    <row r="2" spans="2:20">
       <c r="B2" s="5" t="s">
         <v>54</v>
       </c>
@@ -1552,14 +4344,20 @@
       <c r="P2" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="R2" s="1" t="s">
+      <c r="Q2" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="R2" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="S2" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="2:18" ht="25.5">
+    <row r="3" spans="2:20" ht="63.75">
       <c r="B3" s="8" t="s">
         <v>71</v>
       </c>
@@ -1585,12 +4383,16 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="P3" s="16" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="Q3" s="16"/>
-      <c r="R3" s="4"/>
-    </row>
-    <row r="4" spans="2:18" ht="63.75">
+      <c r="R3" s="16"/>
+      <c r="S3" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="2:20" ht="63.75">
       <c r="B4" s="11"/>
       <c r="C4" s="12" t="s">
         <v>76</v>
@@ -1622,14 +4424,20 @@
         <v>83</v>
       </c>
       <c r="P4" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18" ht="25.5">
+        <v>159</v>
+      </c>
+      <c r="Q4" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="R4" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="S4" s="18"/>
+      <c r="T4" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" ht="25.5">
       <c r="B5" s="11"/>
       <c r="C5" s="12" t="s">
         <v>84</v>
@@ -1661,12 +4469,18 @@
         <v>88</v>
       </c>
       <c r="P5" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="2"/>
-    </row>
-    <row r="6" spans="2:18" ht="25.5">
+        <v>160</v>
+      </c>
+      <c r="Q5" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="R5" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="S5" s="18"/>
+      <c r="T5" s="2"/>
+    </row>
+    <row r="6" spans="2:20" ht="25.5">
       <c r="B6" s="11"/>
       <c r="C6" s="12" t="s">
         <v>89</v>
@@ -1698,12 +4512,18 @@
         <v>93</v>
       </c>
       <c r="P6" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="2"/>
-    </row>
-    <row r="7" spans="2:18" ht="51">
+        <v>161</v>
+      </c>
+      <c r="Q6" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="R6" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="S6" s="18"/>
+      <c r="T6" s="2"/>
+    </row>
+    <row r="7" spans="2:20" ht="51">
       <c r="B7" s="11"/>
       <c r="C7" s="12" t="s">
         <v>94</v>
@@ -1733,16 +4553,18 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="18" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="Q7" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18">
+        <v>167</v>
+      </c>
+      <c r="R7" s="18"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20">
       <c r="B8" s="11"/>
       <c r="C8" s="12" t="s">
         <v>99</v>
@@ -1772,12 +4594,16 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-    </row>
-    <row r="9" spans="2:18" ht="25.5">
+        <v>156</v>
+      </c>
+      <c r="Q8" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="R8" s="17"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+    </row>
+    <row r="9" spans="2:20" ht="25.5">
       <c r="B9" s="11"/>
       <c r="C9" s="12" t="s">
         <v>105</v>
@@ -1809,10 +4635,14 @@
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="Q9" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="R9" s="17"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1821,107 +4651,9 @@
     <hyperlink ref="O6" location="NutritionScoreCodelist!A1" display="NutritionScoreCodelist"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="J3:J8" numberStoredAsText="1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="28" customWidth="1"/>
-    <col min="8" max="8" width="32" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:8">
-      <c r="C3" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-    </row>
-    <row r="4" spans="3:8">
-      <c r="C4" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="3:8" ht="25.5">
-      <c r="C5" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="3:8" ht="25.5">
-      <c r="C6" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:H3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="D5:E6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1942,16 +4674,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:8">
-      <c r="C3" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
+      <c r="C3" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
     </row>
     <row r="4" spans="3:8">
       <c r="C4" s="14" t="s">
@@ -1975,42 +4707,42 @@
     </row>
     <row r="5" spans="3:8" ht="25.5">
       <c r="C5" s="2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>119</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="3:8" ht="25.5">
       <c r="C6" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>102</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2026,6 +4758,105 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="28" customWidth="1"/>
+    <col min="8" max="8" width="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:8">
+      <c r="C3" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+    </row>
+    <row r="4" spans="3:8">
+      <c r="C4" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" ht="25.5">
+      <c r="C5" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" ht="25.5">
+      <c r="C6" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:H3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="D5:E6" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:H7"/>
   <sheetViews>
@@ -2041,16 +4872,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:8">
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20" t="s">
+      <c r="D3" s="21"/>
+      <c r="E3" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
     </row>
     <row r="4" spans="3:8">
       <c r="C4" s="14" t="s">
@@ -2144,7 +4975,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B7"/>
   <sheetViews>
@@ -2191,18 +5022,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2397,14 +5228,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF933021-9D6F-4FBE-B2BB-7189DF7CE33C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{125657B1-5422-4700-9216-4B2A004622E1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -2417,6 +5240,14 @@
     <ds:schemaRef ds:uri="d8b013f3-f757-4442-942f-c178d59a4411"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF933021-9D6F-4FBE-B2BB-7189DF7CE33C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Mappings/SNAQScore - STU3.xlsx
+++ b/Mappings/SNAQScore - STU3.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edelman\Nictiz-STU3-Zib2017\Mappings\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C54A469-9203-4D34-B76B-2007E3C7C30B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="615" windowWidth="27495" windowHeight="11955" activeTab="4"/>
+    <workbookView xWindow="630" yWindow="615" windowWidth="27495" windowHeight="11955" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -22,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="186">
   <si>
     <t>Subject</t>
   </si>
@@ -593,8 +599,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
@@ -637,8 +643,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -658,6 +671,17 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD3D3D3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -722,10 +746,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -772,7 +797,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -785,17 +809,25 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -803,6 +835,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -980,7 +1015,13 @@
     <xdr:ext cx="2856900" cy="618995"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPr id="1025" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1015,7 +1056,13 @@
     <xdr:ext cx="1428750" cy="504825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPr id="1026" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1050,7 +1097,13 @@
     <xdr:ext cx="7867650" cy="5153025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPr id="1025" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1102,11 +1155,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4097"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001100000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1114,6 +1170,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1143,11 +1222,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4098"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002100000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1155,6 +1237,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1184,11 +1289,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4099"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003100000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1196,6 +1304,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1225,11 +1356,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4100"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004100000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1237,6 +1371,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1266,11 +1423,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4101"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005100000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1278,6 +1438,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1307,11 +1490,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4102"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006100000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1319,6 +1505,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1348,11 +1557,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4103"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007100000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1360,6 +1572,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1389,11 +1624,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4104"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008100000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1401,6 +1639,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1430,11 +1691,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4105"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009100000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1442,6 +1706,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1471,11 +1758,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4106"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A100000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1483,6 +1773,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1512,11 +1825,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4107"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B100000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1524,6 +1840,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1553,11 +1892,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4108"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C100000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1565,6 +1907,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1594,11 +1959,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4109"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D100000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1606,6 +1974,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1635,11 +2026,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4110"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E100000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1647,6 +2041,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1676,11 +2093,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4111"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000F100000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1688,6 +2108,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1717,11 +2160,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4112"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010100000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1729,6 +2175,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1758,11 +2227,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4113"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000011100000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1770,6 +2242,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1799,11 +2294,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4114"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000012100000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1811,6 +2309,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1840,11 +2361,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4115"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000013100000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1852,6 +2376,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1881,11 +2428,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4116"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000014100000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1893,6 +2443,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1922,11 +2495,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4117"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000015100000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1934,6 +2510,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1963,11 +2562,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4118"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000016100000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1975,6 +2577,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2004,11 +2629,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4119"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000017100000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2016,6 +2644,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2045,11 +2696,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4120"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000018100000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2057,6 +2711,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2066,14 +2743,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>47625</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="704850" cy="209550"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4121" name="Check Box 25" hidden="1">
@@ -2081,11 +2763,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4121"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000019100000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2093,23 +2778,51 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>47625</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="704850" cy="209550"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4122" name="Check Box 26" hidden="1">
@@ -2117,11 +2830,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4122"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001A100000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2129,23 +2845,51 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>47625</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="704850" cy="209550"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4123" name="Check Box 27" hidden="1">
@@ -2153,11 +2897,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4123"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001B100000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2165,23 +2912,51 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>47625</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="704850" cy="209550"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4124" name="Check Box 28" hidden="1">
@@ -2189,11 +2964,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4124"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001C100000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2201,23 +2979,51 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>47625</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="704850" cy="209550"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4125" name="Check Box 29" hidden="1">
@@ -2225,11 +3031,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4125"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001D100000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2237,23 +3046,51 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>47625</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="704850" cy="209550"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4126" name="Check Box 30" hidden="1">
@@ -2261,11 +3098,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4126"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001E100000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2273,23 +3113,51 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>47625</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="704850" cy="209550"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4127" name="Check Box 31" hidden="1">
@@ -2297,11 +3165,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4127"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001F100000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2309,23 +3180,51 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>47625</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="704850" cy="209550"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4128" name="Check Box 32" hidden="1">
@@ -2333,11 +3232,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4128"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000020100000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2345,23 +3247,51 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>47625</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="704850" cy="209550"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4129" name="Check Box 33" hidden="1">
@@ -2369,11 +3299,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4129"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000021100000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2381,23 +3314,51 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>47625</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="704850" cy="209550"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4130" name="Check Box 34" hidden="1">
@@ -2405,11 +3366,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4130"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000022100000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2417,23 +3381,51 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>47625</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="704850" cy="209550"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4131" name="Check Box 35" hidden="1">
@@ -2441,11 +3433,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4131"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000023100000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2453,23 +3448,51 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>47625</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="704850" cy="209550"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4132" name="Check Box 36" hidden="1">
@@ -2477,11 +3500,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4132"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000024100000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2489,23 +3515,51 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>47625</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="704850" cy="209550"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4133" name="Check Box 37" hidden="1">
@@ -2513,11 +3567,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4133"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000025100000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2525,23 +3582,51 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>47625</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="704850" cy="209550"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4134" name="Check Box 38" hidden="1">
@@ -2549,11 +3634,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4134"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000026100000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2561,23 +3649,51 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>47625</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="704850" cy="209550"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4135" name="Check Box 39" hidden="1">
@@ -2585,11 +3701,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4135"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000027100000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2597,23 +3716,51 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>47625</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="704850" cy="209550"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4136" name="Check Box 40" hidden="1">
@@ -2621,11 +3768,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4136"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000028100000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2633,10 +3783,33 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -2686,7 +3859,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2719,9 +3892,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2754,6 +3944,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2929,18 +4136,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="100" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2948,7 +4155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -2956,7 +4163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -2964,7 +4171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -2972,7 +4179,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -2980,7 +4187,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
@@ -2988,7 +4195,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
@@ -2996,7 +4203,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
@@ -3004,7 +4211,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
@@ -3012,7 +4219,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
@@ -3020,7 +4227,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="76.5">
+    <row r="12" spans="2:3" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>54</v>
       </c>
@@ -3028,7 +4235,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="25.5">
+    <row r="13" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>56</v>
       </c>
@@ -3036,7 +4243,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="89.25">
+    <row r="14" spans="2:3" ht="89.25" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>58</v>
       </c>
@@ -3044,7 +4251,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="25.5">
+    <row r="15" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>60</v>
       </c>
@@ -3054,7 +4261,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1"/>
+    <hyperlink ref="C11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -3065,26 +4272,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:C25"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C49" sqref="C48:C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="35" customWidth="1"/>
     <col min="3" max="3" width="70" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
-      <c r="B2" s="21" t="s">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="21"/>
-    </row>
-    <row r="3" spans="2:3">
+      <c r="C2" s="24"/>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
@@ -3092,7 +4299,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>23</v>
       </c>
@@ -3100,7 +4307,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
@@ -3108,7 +4315,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
@@ -3116,7 +4323,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
@@ -3124,7 +4331,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>28</v>
       </c>
@@ -3132,13 +4339,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>31</v>
       </c>
@@ -3146,13 +4353,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>34</v>
       </c>
@@ -3160,13 +4367,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="2:3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>37</v>
       </c>
@@ -3174,7 +4381,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>39</v>
       </c>
@@ -3182,7 +4389,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="2:3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>41</v>
       </c>
@@ -3190,7 +4397,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>42</v>
       </c>
@@ -3198,7 +4405,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>43</v>
       </c>
@@ -3206,7 +4413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>44</v>
       </c>
@@ -3214,7 +4421,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>45</v>
       </c>
@@ -3222,7 +4429,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>46</v>
       </c>
@@ -3230,7 +4437,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>48</v>
       </c>
@@ -3238,7 +4445,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>49</v>
       </c>
@@ -3246,7 +4453,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>51</v>
       </c>
@@ -3254,7 +4461,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>52</v>
       </c>
@@ -3274,16 +4481,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
     </row>
   </sheetData>
@@ -3293,72 +4500,72 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
         <v>175</v>
       </c>
       <c r="C3" t="s">
         <v>182</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="22" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="22" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="20" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="22" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="20" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="22" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="22" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="22" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
         <v>180</v>
       </c>
       <c r="C8" t="s">
@@ -3368,19 +4575,19 @@
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="22" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="s">
         <v>181</v>
       </c>
       <c r="C9" t="s">
         <v>182</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="22" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="s">
         <v>169</v>
       </c>
       <c r="C10" t="s">
@@ -4284,14 +5491,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="6" width="2" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
@@ -4304,11 +5511,11 @@
     <col min="15" max="16" width="30" customWidth="1"/>
     <col min="17" max="17" width="19.28515625" customWidth="1"/>
     <col min="18" max="18" width="18.140625" customWidth="1"/>
-    <col min="19" max="19" width="30" style="25" customWidth="1"/>
-    <col min="20" max="20" width="20" customWidth="1"/>
+    <col min="19" max="19" width="30" style="23" customWidth="1"/>
+    <col min="20" max="20" width="43.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>54</v>
       </c>
@@ -4344,20 +5551,20 @@
       <c r="P2" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="Q2" s="20" t="s">
+      <c r="Q2" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="R2" s="20" t="s">
+      <c r="R2" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="S2" s="20" t="s">
+      <c r="S2" s="19" t="s">
         <v>162</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="2:20" ht="63.75">
+    <row r="3" spans="2:20" ht="90" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>71</v>
       </c>
@@ -4381,18 +5588,18 @@
         <v>75</v>
       </c>
       <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="16" t="s">
+      <c r="O3" s="26"/>
+      <c r="P3" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="17" t="s">
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="T3" s="4"/>
-    </row>
-    <row r="4" spans="2:20" ht="63.75">
+      <c r="T3" s="26"/>
+    </row>
+    <row r="4" spans="2:20" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B4" s="11"/>
       <c r="C4" s="12" t="s">
         <v>76</v>
@@ -4423,21 +5630,21 @@
       <c r="O4" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="P4" s="17" t="s">
+      <c r="P4" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="Q4" s="17" t="s">
+      <c r="Q4" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="R4" s="17" t="s">
+      <c r="R4" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="S4" s="18"/>
+      <c r="S4" s="17"/>
       <c r="T4" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="2:20" ht="25.5">
+    <row r="5" spans="2:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B5" s="11"/>
       <c r="C5" s="12" t="s">
         <v>84</v>
@@ -4468,19 +5675,19 @@
       <c r="O5" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="P5" s="18" t="s">
+      <c r="P5" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="Q5" s="17" t="s">
+      <c r="Q5" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="R5" s="17" t="s">
+      <c r="R5" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="S5" s="18"/>
+      <c r="S5" s="17"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="2:20" ht="25.5">
+    <row r="6" spans="2:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B6" s="11"/>
       <c r="C6" s="12" t="s">
         <v>89</v>
@@ -4511,19 +5718,19 @@
       <c r="O6" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="P6" s="18" t="s">
+      <c r="P6" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="Q6" s="17" t="s">
+      <c r="Q6" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="R6" s="17" t="s">
+      <c r="R6" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="S6" s="18"/>
+      <c r="S6" s="17"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="2:20" ht="51">
+    <row r="7" spans="2:20" ht="51" x14ac:dyDescent="0.2">
       <c r="B7" s="11"/>
       <c r="C7" s="12" t="s">
         <v>94</v>
@@ -4552,19 +5759,19 @@
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
-      <c r="P7" s="18" t="s">
+      <c r="P7" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="Q7" s="19" t="s">
+      <c r="Q7" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="R7" s="18"/>
-      <c r="S7" s="19"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="18"/>
       <c r="T7" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="2:20">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B8" s="11"/>
       <c r="C8" s="12" t="s">
         <v>99</v>
@@ -4596,14 +5803,14 @@
       <c r="P8" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="Q8" s="17" t="s">
+      <c r="Q8" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="R8" s="17"/>
+      <c r="R8" s="16"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="2:20" ht="25.5">
+    <row r="9" spans="2:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B9" s="11"/>
       <c r="C9" s="12" t="s">
         <v>105</v>
@@ -4637,18 +5844,18 @@
       <c r="P9" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="Q9" s="17" t="s">
+      <c r="Q9" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="R9" s="17"/>
+      <c r="R9" s="16"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O4" location="SNAQWeightLossScoreCodelist!A1" display="SNAQWeightLossScoreCodelist"/>
-    <hyperlink ref="O5" location="AppetiteScoreCodelist!A1" display="AppetiteScoreCodelist"/>
-    <hyperlink ref="O6" location="NutritionScoreCodelist!A1" display="NutritionScoreCodelist"/>
+    <hyperlink ref="O4" location="SNAQWeightLossScoreCodelist!A1" display="SNAQWeightLossScoreCodelist" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="O5" location="AppetiteScoreCodelist!A1" display="AppetiteScoreCodelist" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="O6" location="NutritionScoreCodelist!A1" display="NutritionScoreCodelist" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -4659,12 +5866,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="C3:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="5" width="15" customWidth="1"/>
@@ -4673,19 +5880,19 @@
     <col min="8" max="8" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8">
-      <c r="C3" s="21" t="s">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C3" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-    </row>
-    <row r="4" spans="3:8">
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C4" s="14" t="s">
         <v>112</v>
       </c>
@@ -4705,7 +5912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:8" ht="25.5">
+    <row r="5" spans="3:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
         <v>117</v>
       </c>
@@ -4725,7 +5932,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="3:8" ht="25.5">
+    <row r="6" spans="3:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
         <v>123</v>
       </c>
@@ -4758,12 +5965,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="C3:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="5" width="15" customWidth="1"/>
@@ -4772,19 +5979,19 @@
     <col min="8" max="8" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8">
-      <c r="C3" s="21" t="s">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C3" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-    </row>
-    <row r="4" spans="3:8">
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C4" s="14" t="s">
         <v>112</v>
       </c>
@@ -4804,7 +6011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:8" ht="25.5">
+    <row r="5" spans="3:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
         <v>127</v>
       </c>
@@ -4824,7 +6031,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="3:8" ht="25.5">
+    <row r="6" spans="3:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
         <v>132</v>
       </c>
@@ -4857,12 +6064,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="C3:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="5" width="15" customWidth="1"/>
@@ -4871,19 +6078,19 @@
     <col min="8" max="8" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8">
-      <c r="C3" s="21" t="s">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C3" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-    </row>
-    <row r="4" spans="3:8">
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C4" s="14" t="s">
         <v>112</v>
       </c>
@@ -4903,7 +6110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:8" ht="25.5">
+    <row r="5" spans="3:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
         <v>136</v>
       </c>
@@ -4923,7 +6130,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="3:8" ht="25.5">
+    <row r="6" spans="3:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
         <v>141</v>
       </c>
@@ -4943,7 +6150,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="3:8" ht="25.5">
+    <row r="7" spans="3:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
         <v>145</v>
       </c>
@@ -4976,42 +6183,42 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B2:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="150" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="140.25">
+    <row r="3" spans="2:2" ht="140.25" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="25.5">
+    <row r="5" spans="2:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="38.25">
+    <row r="7" spans="2:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>154</v>
       </c>
@@ -5022,21 +6229,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F494F4030F39954381FEDCB9F1521453" ma:contentTypeVersion="8" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="27a32a75921fafc58b02df1cc725ea53">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c9309f2a-e493-41e5-bc1f-ce1ae85ad224" xmlns:ns3="d8b013f3-f757-4442-942f-c178d59a4411" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8dd320713f27671350e0900a33d7d303" ns2:_="" ns3:_="">
     <xsd:import namespace="c9309f2a-e493-41e5-bc1f-ce1ae85ad224"/>
@@ -5227,32 +6419,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{125657B1-5422-4700-9216-4B2A004622E1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="c9309f2a-e493-41e5-bc1f-ce1ae85ad224"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d8b013f3-f757-4442-942f-c178d59a4411"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF933021-9D6F-4FBE-B2BB-7189DF7CE33C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7BB6046-9D51-4104-9243-5E11E4AFE467}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5269,4 +6451,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF933021-9D6F-4FBE-B2BB-7189DF7CE33C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{125657B1-5422-4700-9216-4B2A004622E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c9309f2a-e493-41e5-bc1f-ce1ae85ad224"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d8b013f3-f757-4442-942f-c178d59a4411"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>